--- a/Test Case_Suite.xlsx
+++ b/Test Case_Suite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majes\Desktop\Remya\JOBS\Fernway Partners_Jon\Test Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All_rem\Remya Git Repo\SpecflowSeleniumTestProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6459052D-969A-461A-A334-2DAB0A9DF43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D640D5-05DE-48E9-93C4-A2EC092DFEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Computer Database" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="102">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -171,9 +171,6 @@
     <t>TC_CD_005</t>
   </si>
   <si>
-    <t>TC_CD_view computer record_record not found</t>
-  </si>
-  <si>
     <t>1. URL http://computer-database.gatling.io/computers is launched and is on home page.
 2. No computer record exists with name 'testcomputer'</t>
   </si>
@@ -366,9 +363,6 @@
     <t>To verify clicking OK on the JavaScript Confirm alert</t>
   </si>
   <si>
-    <t>To verify clicking OK on theJavaScript Confirm alert</t>
-  </si>
-  <si>
     <t>To verify entering text and clicking OK on the JavaScript Prompt alert</t>
   </si>
   <si>
@@ -387,6 +381,9 @@
   </si>
   <si>
     <t>TC_CD_add_computer_without_values</t>
+  </si>
+  <si>
+    <t>TC_CD_view_computer_record_record not found</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1805,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -1897,7 +1894,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
@@ -1919,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>17</v>
@@ -1993,7 +1990,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>22</v>
@@ -2069,7 +2066,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -2165,13 +2162,13 @@
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -2180,10 +2177,10 @@
         <v>31</v>
       </c>
       <c r="G18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
@@ -2202,13 +2199,13 @@
     </row>
     <row r="20" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>30</v>
@@ -2257,13 +2254,13 @@
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="4"/>
@@ -2277,11 +2274,11 @@
         <v>4</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="4"/>
@@ -2295,13 +2292,13 @@
         <v>5</v>
       </c>
       <c r="F24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="13"/>
@@ -2315,13 +2312,13 @@
         <v>6</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="13"/>
@@ -2340,13 +2337,13 @@
     </row>
     <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>30</v>
@@ -2395,13 +2392,13 @@
         <v>3</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="4"/>
@@ -2415,7 +2412,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="3" t="s">
@@ -2456,13 +2453,13 @@
     </row>
     <row r="33" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>30</v>
@@ -2511,11 +2508,11 @@
         <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="4"/>
@@ -2729,7 +2726,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,26 +2776,26 @@
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="4"/>
@@ -2812,11 +2809,11 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="4"/>
@@ -2835,26 +2832,26 @@
     </row>
     <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="4"/>
@@ -2868,11 +2865,11 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="4"/>
@@ -2891,26 +2888,26 @@
     </row>
     <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
@@ -2924,11 +2921,11 @@
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="4"/>
@@ -2947,26 +2944,26 @@
     </row>
     <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="4"/>
@@ -2980,13 +2977,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
@@ -3005,26 +3002,26 @@
     </row>
     <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="4"/>
@@ -3038,13 +3035,13 @@
         <v>2</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="4"/>
